--- a/portfolio_values_app.xlsx
+++ b/portfolio_values_app.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,6 +4491,86 @@
         <v>1.165786504745483</v>
       </c>
     </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C203" t="n">
+        <v>112117.23</v>
+      </c>
+      <c r="D203" t="n">
+        <v>110006.7</v>
+      </c>
+      <c r="E203" t="n">
+        <v>6963.740234375</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.166697859764099</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C204" t="n">
+        <v>112132.25</v>
+      </c>
+      <c r="D204" t="n">
+        <v>110021.72</v>
+      </c>
+      <c r="E204" t="n">
+        <v>6926.60009765625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.164252758026123</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C205" t="n">
+        <v>112132.25</v>
+      </c>
+      <c r="D205" t="n">
+        <v>110021.72</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6944.47021484375</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.164632439613342</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C206" t="n">
+        <v>112733.05</v>
+      </c>
+      <c r="D206" t="n">
+        <v>110622.52</v>
+      </c>
+      <c r="E206" t="n">
+        <v>6940.009765625</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.160900831222534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio_values_app.xlsx
+++ b/portfolio_values_app.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4571,6 +4571,66 @@
         <v>1.160900831222534</v>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C207" t="n">
+        <v>114302.64</v>
+      </c>
+      <c r="D207" t="n">
+        <v>112192.11</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6875.6201171875</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.172786593437195</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C208" t="n">
+        <v>114865.89</v>
+      </c>
+      <c r="D208" t="n">
+        <v>112755.36</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6913.35009765625</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1.167297005653381</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C209" t="n">
+        <v>113153.61</v>
+      </c>
+      <c r="D209" t="n">
+        <v>111043.08</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6915.60986328125</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.175461053848267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio_values_app.xlsx
+++ b/portfolio_values_app.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>2025.71</v>
       </c>
       <c r="C161" t="n">
-        <v>102071.42</v>
+        <v>100045.71</v>
       </c>
       <c r="D161" t="n">
         <v>100045.71</v>
@@ -3679,7 +3679,7 @@
         <v>2025.71</v>
       </c>
       <c r="C162" t="n">
-        <v>101114.62</v>
+        <v>99088.91</v>
       </c>
       <c r="D162" t="n">
         <v>99088.91</v>
@@ -3699,7 +3699,7 @@
         <v>2025.71</v>
       </c>
       <c r="C163" t="n">
-        <v>102456.22</v>
+        <v>100430.51</v>
       </c>
       <c r="D163" t="n">
         <v>100430.51</v>
@@ -3719,7 +3719,7 @@
         <v>2171.23</v>
       </c>
       <c r="C164" t="n">
-        <v>102073.6</v>
+        <v>99902.37</v>
       </c>
       <c r="D164" t="n">
         <v>99902.37</v>
@@ -3739,7 +3739,7 @@
         <v>2171.23</v>
       </c>
       <c r="C165" t="n">
-        <v>102763.9</v>
+        <v>100592.67</v>
       </c>
       <c r="D165" t="n">
         <v>100592.67</v>
@@ -3759,7 +3759,7 @@
         <v>2171.23</v>
       </c>
       <c r="C166" t="n">
-        <v>104727.42</v>
+        <v>102556.19</v>
       </c>
       <c r="D166" t="n">
         <v>102556.19</v>
@@ -3779,7 +3779,7 @@
         <v>2171.23</v>
       </c>
       <c r="C167" t="n">
-        <v>104282.56</v>
+        <v>102111.33</v>
       </c>
       <c r="D167" t="n">
         <v>102111.33</v>
@@ -3799,7 +3799,7 @@
         <v>2171.23</v>
       </c>
       <c r="C168" t="n">
-        <v>103722.65</v>
+        <v>101551.42</v>
       </c>
       <c r="D168" t="n">
         <v>101551.42</v>
@@ -3819,7 +3819,7 @@
         <v>2171.23</v>
       </c>
       <c r="C169" t="n">
-        <v>104489.65</v>
+        <v>102318.42</v>
       </c>
       <c r="D169" t="n">
         <v>102318.42</v>
@@ -3839,7 +3839,7 @@
         <v>2171.23</v>
       </c>
       <c r="C170" t="n">
-        <v>102725.55</v>
+        <v>100554.32</v>
       </c>
       <c r="D170" t="n">
         <v>100554.32</v>
@@ -3859,7 +3859,7 @@
         <v>2171.23</v>
       </c>
       <c r="C171" t="n">
-        <v>103599.93</v>
+        <v>101428.7</v>
       </c>
       <c r="D171" t="n">
         <v>101428.7</v>
@@ -3879,7 +3879,7 @@
         <v>2171.23</v>
       </c>
       <c r="C172" t="n">
-        <v>104267.22</v>
+        <v>102095.99</v>
       </c>
       <c r="D172" t="n">
         <v>102095.99</v>
@@ -3899,7 +3899,7 @@
         <v>2171.23</v>
       </c>
       <c r="C173" t="n">
-        <v>105179.95</v>
+        <v>103008.72</v>
       </c>
       <c r="D173" t="n">
         <v>103008.72</v>
@@ -3919,7 +3919,7 @@
         <v>2171.23</v>
       </c>
       <c r="C174" t="n">
-        <v>106184.72</v>
+        <v>104013.49</v>
       </c>
       <c r="D174" t="n">
         <v>104013.49</v>
@@ -3939,7 +3939,7 @@
         <v>2171.23</v>
       </c>
       <c r="C175" t="n">
-        <v>103370.81</v>
+        <v>101199.58</v>
       </c>
       <c r="D175" t="n">
         <v>101199.58</v>
@@ -3959,7 +3959,7 @@
         <v>2171.23</v>
       </c>
       <c r="C176" t="n">
-        <v>103317.91</v>
+        <v>101146.68</v>
       </c>
       <c r="D176" t="n">
         <v>101146.68</v>
@@ -3979,7 +3979,7 @@
         <v>2094.43</v>
       </c>
       <c r="C177" t="n">
-        <v>102151.37</v>
+        <v>100056.94</v>
       </c>
       <c r="D177" t="n">
         <v>100056.94</v>
@@ -3999,7 +3999,7 @@
         <v>2094.43</v>
       </c>
       <c r="C178" t="n">
-        <v>103283.43</v>
+        <v>101189</v>
       </c>
       <c r="D178" t="n">
         <v>101189</v>
@@ -4019,7 +4019,7 @@
         <v>2094.43</v>
       </c>
       <c r="C179" t="n">
-        <v>104299.11</v>
+        <v>102204.68</v>
       </c>
       <c r="D179" t="n">
         <v>102204.68</v>
@@ -4039,7 +4039,7 @@
         <v>2094.43</v>
       </c>
       <c r="C180" t="n">
-        <v>104574.19</v>
+        <v>102479.76</v>
       </c>
       <c r="D180" t="n">
         <v>102479.76</v>
@@ -4059,7 +4059,7 @@
         <v>2094.43</v>
       </c>
       <c r="C181" t="n">
-        <v>104518.58</v>
+        <v>102424.15</v>
       </c>
       <c r="D181" t="n">
         <v>102424.15</v>
@@ -4079,7 +4079,7 @@
         <v>2094.43</v>
       </c>
       <c r="C182" t="n">
-        <v>105113.45</v>
+        <v>103019.02</v>
       </c>
       <c r="D182" t="n">
         <v>103019.02</v>
@@ -4099,7 +4099,7 @@
         <v>2094.43</v>
       </c>
       <c r="C183" t="n">
-        <v>106122.47</v>
+        <v>104028.04</v>
       </c>
       <c r="D183" t="n">
         <v>104028.04</v>
@@ -4119,7 +4119,7 @@
         <v>2094.43</v>
       </c>
       <c r="C184" t="n">
-        <v>105625.49</v>
+        <v>103531.06</v>
       </c>
       <c r="D184" t="n">
         <v>103531.06</v>
@@ -4139,7 +4139,7 @@
         <v>2094.43</v>
       </c>
       <c r="C185" t="n">
-        <v>106077.29</v>
+        <v>103982.86</v>
       </c>
       <c r="D185" t="n">
         <v>103982.86</v>
@@ -4159,7 +4159,7 @@
         <v>2094.43</v>
       </c>
       <c r="C186" t="n">
-        <v>106212.83</v>
+        <v>104118.4</v>
       </c>
       <c r="D186" t="n">
         <v>104118.4</v>
@@ -4179,7 +4179,7 @@
         <v>2094.43</v>
       </c>
       <c r="C187" t="n">
-        <v>108306.17</v>
+        <v>106211.74</v>
       </c>
       <c r="D187" t="n">
         <v>106211.74</v>
@@ -4199,7 +4199,7 @@
         <v>2094.43</v>
       </c>
       <c r="C188" t="n">
-        <v>108539.6</v>
+        <v>106445.17</v>
       </c>
       <c r="D188" t="n">
         <v>106445.17</v>
@@ -4219,7 +4219,7 @@
         <v>2094.43</v>
       </c>
       <c r="C189" t="n">
-        <v>107184.2</v>
+        <v>105089.77</v>
       </c>
       <c r="D189" t="n">
         <v>105089.77</v>
@@ -4239,7 +4239,7 @@
         <v>2094.43</v>
       </c>
       <c r="C190" t="n">
-        <v>105964.34</v>
+        <v>103869.91</v>
       </c>
       <c r="D190" t="n">
         <v>103869.91</v>
@@ -4259,7 +4259,7 @@
         <v>2094.43</v>
       </c>
       <c r="C191" t="n">
-        <v>105120.98</v>
+        <v>103026.55</v>
       </c>
       <c r="D191" t="n">
         <v>103026.55</v>
@@ -4279,7 +4279,7 @@
         <v>2094.43</v>
       </c>
       <c r="C192" t="n">
-        <v>105941.75</v>
+        <v>103847.32</v>
       </c>
       <c r="D192" t="n">
         <v>103847.32</v>
@@ -4299,7 +4299,7 @@
         <v>2094.43</v>
       </c>
       <c r="C193" t="n">
-        <v>107041.13</v>
+        <v>104946.7</v>
       </c>
       <c r="D193" t="n">
         <v>104946.7</v>
@@ -4319,7 +4319,7 @@
         <v>2094.43</v>
       </c>
       <c r="C194" t="n">
-        <v>107553.17</v>
+        <v>105458.74</v>
       </c>
       <c r="D194" t="n">
         <v>105458.74</v>
@@ -4339,7 +4339,7 @@
         <v>2094.43</v>
       </c>
       <c r="C195" t="n">
-        <v>108253.46</v>
+        <v>106159.03</v>
       </c>
       <c r="D195" t="n">
         <v>106159.03</v>
@@ -4359,7 +4359,7 @@
         <v>2094.48</v>
       </c>
       <c r="C196" t="n">
-        <v>108058.98</v>
+        <v>105964.5</v>
       </c>
       <c r="D196" t="n">
         <v>105964.5</v>
@@ -4379,7 +4379,7 @@
         <v>2110.53</v>
       </c>
       <c r="C197" t="n">
-        <v>107112.79</v>
+        <v>105002.26</v>
       </c>
       <c r="D197" t="n">
         <v>105002.26</v>
@@ -4399,7 +4399,7 @@
         <v>2110.53</v>
       </c>
       <c r="C198" t="n">
-        <v>108756.75</v>
+        <v>106646.22</v>
       </c>
       <c r="D198" t="n">
         <v>106646.22</v>
@@ -4419,7 +4419,7 @@
         <v>2110.53</v>
       </c>
       <c r="C199" t="n">
-        <v>111674.14</v>
+        <v>109563.61</v>
       </c>
       <c r="D199" t="n">
         <v>109563.61</v>
@@ -4439,7 +4439,7 @@
         <v>2110.53</v>
       </c>
       <c r="C200" t="n">
-        <v>110660.29</v>
+        <v>108549.76</v>
       </c>
       <c r="D200" t="n">
         <v>108549.76</v>
@@ -4459,7 +4459,7 @@
         <v>2110.53</v>
       </c>
       <c r="C201" t="n">
-        <v>111103.38</v>
+        <v>108992.85</v>
       </c>
       <c r="D201" t="n">
         <v>108992.85</v>
@@ -4479,7 +4479,7 @@
         <v>2110.53</v>
       </c>
       <c r="C202" t="n">
-        <v>112545.3</v>
+        <v>110434.77</v>
       </c>
       <c r="D202" t="n">
         <v>110434.77</v>
@@ -4499,7 +4499,7 @@
         <v>2110.53</v>
       </c>
       <c r="C203" t="n">
-        <v>112117.23</v>
+        <v>110006.7</v>
       </c>
       <c r="D203" t="n">
         <v>110006.7</v>
@@ -4519,7 +4519,7 @@
         <v>2110.53</v>
       </c>
       <c r="C204" t="n">
-        <v>112132.25</v>
+        <v>110021.72</v>
       </c>
       <c r="D204" t="n">
         <v>110021.72</v>
@@ -4539,7 +4539,7 @@
         <v>2110.53</v>
       </c>
       <c r="C205" t="n">
-        <v>112132.25</v>
+        <v>110021.72</v>
       </c>
       <c r="D205" t="n">
         <v>110021.72</v>
@@ -4559,7 +4559,7 @@
         <v>2110.53</v>
       </c>
       <c r="C206" t="n">
-        <v>112733.05</v>
+        <v>110622.52</v>
       </c>
       <c r="D206" t="n">
         <v>110622.52</v>
@@ -4573,62 +4573,182 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="B207" t="n">
         <v>2110.53</v>
       </c>
       <c r="C207" t="n">
-        <v>114302.64</v>
+        <v>109383.3672497559</v>
       </c>
       <c r="D207" t="n">
-        <v>112192.11</v>
+        <v>109383.3672497559</v>
       </c>
       <c r="E207" t="n">
-        <v>6875.6201171875</v>
+        <v>6796.85986328125</v>
       </c>
       <c r="F207" t="n">
-        <v>1.172786593437195</v>
+        <v>1.16391396522522</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>46044</v>
+        <v>46043</v>
       </c>
       <c r="B208" t="n">
         <v>2110.53</v>
       </c>
       <c r="C208" t="n">
-        <v>114865.89</v>
+        <v>112192.11</v>
       </c>
       <c r="D208" t="n">
-        <v>112755.36</v>
+        <v>112192.11</v>
       </c>
       <c r="E208" t="n">
-        <v>6913.35009765625</v>
+        <v>6875.6201171875</v>
       </c>
       <c r="F208" t="n">
-        <v>1.167297005653381</v>
+        <v>1.172786593437195</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>46045</v>
+        <v>46044</v>
       </c>
       <c r="B209" t="n">
         <v>2110.53</v>
       </c>
       <c r="C209" t="n">
-        <v>113153.61</v>
+        <v>112755.36</v>
       </c>
       <c r="D209" t="n">
+        <v>112755.36</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6913.35009765625</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.167297005653381</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C210" t="n">
         <v>111043.08</v>
       </c>
-      <c r="E209" t="n">
+      <c r="D210" t="n">
+        <v>111043.08</v>
+      </c>
+      <c r="E210" t="n">
         <v>6915.60986328125</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F210" t="n">
         <v>1.175461053848267</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C211" t="n">
+        <v>110817.78</v>
+      </c>
+      <c r="D211" t="n">
+        <v>110817.78</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6950.22998046875</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.185845732688904</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C212" t="n">
+        <v>111839.14</v>
+      </c>
+      <c r="D212" t="n">
+        <v>111839.14</v>
+      </c>
+      <c r="E212" t="n">
+        <v>6978.60009765625</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.187648415565491</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C213" t="n">
+        <v>113228.49</v>
+      </c>
+      <c r="D213" t="n">
+        <v>113228.49</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6978.02978515625</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.201764225959778</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C214" t="n">
+        <v>113611.5</v>
+      </c>
+      <c r="D214" t="n">
+        <v>113611.5</v>
+      </c>
+      <c r="E214" t="n">
+        <v>6969.009765625</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1.197776913642883</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C215" t="n">
+        <v>112642.71</v>
+      </c>
+      <c r="D215" t="n">
+        <v>112642.71</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6939.02978515625</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1.185395956039429</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_values_app.xlsx
+++ b/portfolio_values_app.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4748,7 +4748,107 @@
         <v>6939.02978515625</v>
       </c>
       <c r="F215" t="n">
-        <v>1.185395956039429</v>
+        <v>1.19657301902771</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C216" t="n">
+        <v>114482.6636669922</v>
+      </c>
+      <c r="D216" t="n">
+        <v>114482.6636669922</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6976.43994140625</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.184918284416199</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>46056</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C217" t="n">
+        <v>114437.6</v>
+      </c>
+      <c r="D217" t="n">
+        <v>114437.6</v>
+      </c>
+      <c r="E217" t="n">
+        <v>6917.81005859375</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1.179871439933777</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C218" t="n">
+        <v>114107.16</v>
+      </c>
+      <c r="D218" t="n">
+        <v>114107.16</v>
+      </c>
+      <c r="E218" t="n">
+        <v>6882.72021484375</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.18161404132843</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>46058</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C219" t="n">
+        <v>113371.18</v>
+      </c>
+      <c r="D219" t="n">
+        <v>113371.18</v>
+      </c>
+      <c r="E219" t="n">
+        <v>6798.39990234375</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1.180163860321045</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C220" t="n">
+        <v>116172.4136669922</v>
+      </c>
+      <c r="D220" t="n">
+        <v>116172.4136669922</v>
+      </c>
+      <c r="E220" t="n">
+        <v>6932.2998046875</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1.177786946296692</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_values_app.xlsx
+++ b/portfolio_values_app.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4851,6 +4851,106 @@
         <v>1.177786946296692</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C221" t="n">
+        <v>115759.3613751221</v>
+      </c>
+      <c r="D221" t="n">
+        <v>115759.3613751221</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6964.81982421875</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.182578206062317</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C222" t="n">
+        <v>115368.84</v>
+      </c>
+      <c r="D222" t="n">
+        <v>115368.84</v>
+      </c>
+      <c r="E222" t="n">
+        <v>6941.81005859375</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.190405368804932</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C223" t="n">
+        <v>116938.43</v>
+      </c>
+      <c r="D223" t="n">
+        <v>116938.43</v>
+      </c>
+      <c r="E223" t="n">
+        <v>6941.47021484375</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1.188961744308472</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C224" t="n">
+        <v>114662.9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>114662.9</v>
+      </c>
+      <c r="E224" t="n">
+        <v>6832.759765625</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.18760621547699</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C225" t="n">
+        <v>115932.09</v>
+      </c>
+      <c r="D225" t="n">
+        <v>115932.09</v>
+      </c>
+      <c r="E225" t="n">
+        <v>6836.169921875</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.186844944953918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio_values_app.xlsx
+++ b/portfolio_values_app.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4951,6 +4951,86 @@
         <v>1.186844944953918</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C226" t="n">
+        <v>115398.8845837402</v>
+      </c>
+      <c r="D226" t="n">
+        <v>115398.8845837402</v>
+      </c>
+      <c r="E226" t="n">
+        <v>6843.22021484375</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.184988498687744</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C227" t="n">
+        <v>116487.83</v>
+      </c>
+      <c r="D227" t="n">
+        <v>116487.83</v>
+      </c>
+      <c r="E227" t="n">
+        <v>6881.31005859375</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1.185185194015503</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C228" t="n">
+        <v>115796.91</v>
+      </c>
+      <c r="D228" t="n">
+        <v>115796.91</v>
+      </c>
+      <c r="E228" t="n">
+        <v>6861.89013671875</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.178883910179138</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C229" t="n">
+        <v>116577.95</v>
+      </c>
+      <c r="D229" t="n">
+        <v>116577.95</v>
+      </c>
+      <c r="E229" t="n">
+        <v>6909.509765625</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1.176913619041443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio_values_app.xlsx
+++ b/portfolio_values_app.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5031,6 +5031,106 @@
         <v>1.176913619041443</v>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C230" t="n">
+        <v>114940.7741253662</v>
+      </c>
+      <c r="D230" t="n">
+        <v>114940.7741253662</v>
+      </c>
+      <c r="E230" t="n">
+        <v>6837.75</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.183473944664001</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C231" t="n">
+        <v>115624.18</v>
+      </c>
+      <c r="D231" t="n">
+        <v>115624.18</v>
+      </c>
+      <c r="E231" t="n">
+        <v>6890.06982421875</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1.179384350776672</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>46078</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C232" t="n">
+        <v>116255.02</v>
+      </c>
+      <c r="D232" t="n">
+        <v>116255.02</v>
+      </c>
+      <c r="E232" t="n">
+        <v>6946.1298828125</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1.177523374557495</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>46079</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C233" t="n">
+        <v>115601.65</v>
+      </c>
+      <c r="D233" t="n">
+        <v>115601.65</v>
+      </c>
+      <c r="E233" t="n">
+        <v>6908.85986328125</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1.181516408920288</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>46080</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2110.53</v>
+      </c>
+      <c r="C234" t="n">
+        <v>115353.82</v>
+      </c>
+      <c r="D234" t="n">
+        <v>115353.82</v>
+      </c>
+      <c r="E234" t="n">
+        <v>6878.8798828125</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.18030309677124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
